--- a/biology/Zoologie/Izu_Mito_Sea_Paradise/Izu_Mito_Sea_Paradise.xlsx
+++ b/biology/Zoologie/Izu_Mito_Sea_Paradise/Izu_Mito_Sea_Paradise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Izu Mito Sea Paradise est un parc aquatique japonais comprenant un aquarium et un delphinarium. Fondé en 1930, il est le deuxième aquarium le plus ancien du Japon. Il est situé à Numazu, à l'extrémité de la péninsule d'Izu, dans la préfecture de Shizuoka.
 </t>
